--- a/data/trans_camb/P30_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P30_R-Edad-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K31"/>
+  <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,6 +526,12 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,20 +548,26 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
       <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -572,37 +584,67 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>Mz1/M2</t>
+          <t>M5/M2</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M2</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M2</t>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
         </is>
       </c>
     </row>
@@ -618,6 +660,12 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +680,77 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>7,21</t>
+          <t>6,51</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>6,68</t>
+          <t>7,67</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>16,89</t>
+          <t>12,4</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>8,55</t>
+          <t>1,12</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-3,63</t>
+          <t>-3,96</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>8,23</t>
+          <t>6,9</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>7,97</t>
+          <t>-4,61</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>1,65</t>
+          <t>-0,07</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>12,73</t>
+          <t>8,62</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>0,67</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>6,81</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>1,66</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>6,29</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>4,77</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>-1,79</t>
         </is>
       </c>
     </row>
@@ -685,47 +763,77 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-3,87; 17,64</t>
+          <t>-4,77; 16,18</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-5,15; 17,98</t>
+          <t>-2,86; 19,14</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>4,72; 28,93</t>
+          <t>1,42; 24,33</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-2,24; 17,64</t>
+          <t>-12,06; 17,05</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-14,22; 8,0</t>
+          <t>-19,4; 10,72</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-3,88; 19,82</t>
+          <t>-4,66; 17,01</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,69; 15,86</t>
+          <t>-16,17; 5,85</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-5,73; 10,47</t>
+          <t>-11,07; 11,22</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>3,72; 22,06</t>
+          <t>-2,98; 21,12</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>-12,4; 12,98</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>-0,57; 13,95</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>-5,55; 10,09</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>-2,05; 14,27</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>-4,0; 14,86</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>-11,76; 8,18</t>
         </is>
       </c>
     </row>
@@ -738,47 +846,77 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>31,07%</t>
+          <t>28,76%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>28,8%</t>
+          <t>33,87%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>72,77%</t>
+          <t>54,8%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>27,97%</t>
+          <t>3,2%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-11,89%</t>
+          <t>-9,87%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>26,94%</t>
+          <t>22,29%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>29,78%</t>
+          <t>-14,89%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>6,15%</t>
+          <t>-0,24%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>47,56%</t>
+          <t>27,94%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>1,74%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>25,55%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>6,23%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>23,63%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>14,49%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>-4,54%</t>
         </is>
       </c>
     </row>
@@ -791,47 +929,77 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-13,41; 99,11</t>
+          <t>-18,35; 95,13</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-20,23; 99,66</t>
+          <t>-10,83; 108,68</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>14,07; 159,27</t>
+          <t>4,82; 135,7</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-5,82; 75,66</t>
+          <t>-30,42; 65,95</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-38,83; 31,46</t>
+          <t>-41,35; 31,41</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-10,44; 81,58</t>
+          <t>-13,16; 64,49</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>2,32; 69,64</t>
+          <t>-44,0; 23,3</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-19,73; 46,28</t>
+          <t>-30,81; 44,99</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>12,54; 98,92</t>
+          <t>-8,98; 85,58</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>-27,76; 41,34</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>-1,58; 60,31</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>-18,94; 43,5</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>-6,74; 61,07</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>-10,66; 51,14</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>-27,08; 23,82</t>
         </is>
       </c>
     </row>
@@ -848,47 +1016,77 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>1,66</t>
+          <t>1,46</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-2,05</t>
+          <t>-1,89</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>5,51</t>
+          <t>4,0</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>2,59</t>
+          <t>13,55</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>2,98</t>
+          <t>11,45</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>14,77</t>
+          <t>2,61</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>2,11</t>
+          <t>3,27</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,32</t>
+          <t>3,53</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>10,01</t>
+          <t>4,4</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>-6,76</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>2,0</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>0,53</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>3,8</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>9,08</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>2,6</t>
         </is>
       </c>
     </row>
@@ -901,47 +1099,77 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-7,93; 10,81</t>
+          <t>-8,71; 10,91</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-11,44; 8,1</t>
+          <t>-10,69; 7,2</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-5,68; 18,13</t>
+          <t>-8,91; 14,72</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-5,67; 11,62</t>
+          <t>0,34; 27,33</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-5,22; 11,72</t>
+          <t>-1,56; 26,14</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>4,67; 24,52</t>
+          <t>-5,8; 11,08</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-3,96; 9,06</t>
+          <t>-4,41; 11,72</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-6,2; 6,4</t>
+          <t>-5,98; 13,4</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>1,66; 17,36</t>
+          <t>-4,97; 14,37</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-18,04; 3,67</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>-4,26; 8,15</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>-6,39; 6,4</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>-3,52; 11,52</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>0,93; 18,19</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>-6,14; 11,08</t>
         </is>
       </c>
     </row>
@@ -954,47 +1182,77 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>6,65%</t>
+          <t>5,98%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-8,2%</t>
+          <t>-7,74%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>22,01%</t>
+          <t>16,41%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>11,31%</t>
+          <t>47,7%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>12,99%</t>
+          <t>37,52%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>64,46%</t>
+          <t>11,35%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>8,79%</t>
+          <t>14,24%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>1,33%</t>
+          <t>15,37%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>41,67%</t>
+          <t>16,6%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>-17,95%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>8,45%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>2,22%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>16,02%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>32,98%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>7,65%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1265,77 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-24,39; 55,27</t>
+          <t>-27,99; 58,33</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-37,72; 41,33</t>
+          <t>-37,02; 40,21</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-19,85; 96,01</t>
+          <t>-28,07; 74,13</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-21,42; 61,84</t>
+          <t>0,58; 127,11</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-18,48; 65,97</t>
+          <t>-5,02; 107,02</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>15,6; 142,11</t>
+          <t>-21,71; 61,66</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-14,32; 44,0</t>
+          <t>-17,04; 64,65</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-22,81; 29,99</t>
+          <t>-22,98; 77,16</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>5,67; 84,69</t>
+          <t>-16,74; 69,91</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>-40,79; 12,1</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>-15,1; 39,82</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>-23,46; 31,35</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>-13,2; 54,91</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>2,72; 75,69</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>-16,2; 37,0</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1352,77 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>1,05</t>
+          <t>3,53</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,43</t>
+          <t>2,86</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,99</t>
+          <t>0,57</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>3,39</t>
+          <t>11,39</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-0,89</t>
+          <t>8,64</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>9,79</t>
+          <t>3,11</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>2,16</t>
+          <t>-1,35</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-0,33</t>
+          <t>3,06</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>5,43</t>
+          <t>6,05</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>-0,43</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>3,29</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>0,69</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>1,82</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>9,04</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>4,35</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1435,77 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-10,65; 10,97</t>
+          <t>-6,89; 12,42</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-12,51; 10,05</t>
+          <t>-6,42; 12,18</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-12,61; 11,31</t>
+          <t>-9,09; 10,47</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-3,51; 9,48</t>
+          <t>0,93; 21,12</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-7,61; 5,1</t>
+          <t>-1,61; 18,56</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>2,13; 17,01</t>
+          <t>-3,58; 9,71</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-4,37; 8,01</t>
+          <t>-7,78; 4,92</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-6,38; 6,07</t>
+          <t>-3,36; 10,1</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-1,25; 11,78</t>
+          <t>-1,89; 14,38</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>-9,24; 8,38</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>-3,21; 8,79</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>-4,87; 6,16</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>-4,47; 7,98</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>2,61; 15,09</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>-1,99; 10,76</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1518,77 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>3,72%</t>
+          <t>13,55%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>1,53%</t>
+          <t>10,95%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>3,5%</t>
+          <t>2,18%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>17,68%</t>
+          <t>42,74%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-4,64%</t>
+          <t>29,42%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>51,03%</t>
+          <t>15,99%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>9,1%</t>
+          <t>-6,95%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-1,4%</t>
+          <t>15,73%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>22,85%</t>
+          <t>26,9%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>-1,48%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>14,51%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>3,04%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>8,02%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>36,88%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>14,92%</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1601,77 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-29,41; 51,47</t>
+          <t>-21,59; 59,19</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-35,26; 44,48</t>
+          <t>-21,04; 57,18</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-33,41; 53,06</t>
+          <t>-29,01; 49,87</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-15,73; 59,72</t>
+          <t>3,04; 99,09</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-32,66; 33,59</t>
+          <t>-4,79; 75,73</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>9,83; 108,84</t>
+          <t>-15,5; 62,27</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-15,61; 40,59</t>
+          <t>-33,99; 31,26</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-23,23; 31,36</t>
+          <t>-15,01; 64,8</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-5,19; 58,59</t>
+          <t>-8,66; 74,38</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>-27,95; 33,37</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>-12,56; 43,4</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>-18,93; 32,1</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>-17,29; 39,56</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>9,06; 68,85</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>-7,07; 39,12</t>
         </is>
       </c>
     </row>
@@ -1280,47 +1688,77 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,3</t>
+          <t>-0,19</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>1,83</t>
+          <t>1,0</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>1,5</t>
+          <t>7,35</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>3,05</t>
+          <t>0,64</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,81</t>
+          <t>6,85</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>11,9</t>
+          <t>3,16</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>1,76</t>
+          <t>0,69</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>1,38</t>
+          <t>4,87</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>6,72</t>
+          <t>8,45</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>1,47</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>1,54</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>0,88</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>6,2</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>4,57</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>4,28</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1771,77 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-7,4; 8,16</t>
+          <t>-7,87; 6,98</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-6,31; 9,18</t>
+          <t>-6,72; 8,39</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-6,1; 9,9</t>
+          <t>-0,75; 16,19</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-2,37; 8,97</t>
+          <t>-9,31; 9,58</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-4,84; 5,94</t>
+          <t>-1,5; 16,05</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>4,84; 19,45</t>
+          <t>-2,8; 8,59</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-3,02; 6,58</t>
+          <t>-5,23; 5,93</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-3,14; 6,34</t>
+          <t>-1,75; 10,99</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>1,28; 12,27</t>
+          <t>1,43; 15,85</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>-5,94; 10,86</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>-3,81; 5,95</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>-3,72; 5,38</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>0,35; 11,35</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>-1,84; 10,23</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>-1,76; 10,27</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1854,77 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>1,44%</t>
+          <t>-0,89%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>8,74%</t>
+          <t>4,71%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>7,15%</t>
+          <t>34,57%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>20,74%</t>
+          <t>2,25%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
+          <t>30,56%</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>21,43%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>4,67%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>33,03%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>43,1%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
           <t>5,52%</t>
         </is>
       </c>
-      <c r="H18" s="2" t="inlineStr">
-        <is>
-          <t>81,06%</t>
-        </is>
-      </c>
-      <c r="I18" s="2" t="inlineStr">
-        <is>
-          <t>9,94%</t>
-        </is>
-      </c>
-      <c r="J18" s="2" t="inlineStr">
-        <is>
-          <t>7,83%</t>
-        </is>
-      </c>
-      <c r="K18" s="2" t="inlineStr">
-        <is>
-          <t>37,99%</t>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>8,63%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>4,9%</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>34,62%</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>18,95%</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>17,54%</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1937,77 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-29,98; 48,38</t>
+          <t>-30,58; 41,24</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-25,03; 55,55</t>
+          <t>-26,88; 50,51</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-25,8; 57,95</t>
+          <t>-5,24; 88,0</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-13,93; 84,05</t>
+          <t>-26,89; 39,9</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-26,18; 52,2</t>
+          <t>-7,17; 87,71</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>27,14; 161,47</t>
+          <t>-15,17; 75,21</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-14,82; 43,91</t>
+          <t>-29,06; 49,92</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-15,92; 41,72</t>
+          <t>-10,31; 90,32</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>5,41; 79,06</t>
+          <t>5,38; 98,63</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>-20,0; 48,15</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>-17,95; 37,66</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>-17,97; 35,93</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>1,39; 73,35</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>-6,71; 48,22</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>-6,58; 48,66</t>
         </is>
       </c>
     </row>
@@ -1496,47 +2024,77 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>1,69</t>
+          <t>1,41</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>0,83</t>
+          <t>0,5</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>6,95</t>
+          <t>6,59</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>-1,33</t>
+          <t>3,61</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>-5,44</t>
+          <t>3,58</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>4,58</t>
+          <t>0,19</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>0,16</t>
+          <t>-4,05</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>-2,37</t>
+          <t>-0,09</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>5,74</t>
+          <t>5,24</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>-0,88</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>0,79</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>-1,83</t>
+        </is>
+      </c>
+      <c r="O20" s="2" t="inlineStr">
+        <is>
+          <t>3,18</t>
+        </is>
+      </c>
+      <c r="P20" s="2" t="inlineStr">
+        <is>
+          <t>4,45</t>
+        </is>
+      </c>
+      <c r="Q20" s="2" t="inlineStr">
+        <is>
+          <t>1,31</t>
         </is>
       </c>
     </row>
@@ -1549,47 +2107,77 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-4,49; 8,03</t>
+          <t>-5,11; 6,93</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-5,36; 7,56</t>
+          <t>-5,68; 6,58</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-0,46; 15,04</t>
+          <t>-1,02; 13,25</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-8,82; 5,1</t>
+          <t>-4,54; 11,62</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-12,25; 0,94</t>
+          <t>-5,21; 11,31</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-3,28; 11,56</t>
+          <t>-6,47; 6,42</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-4,75; 4,68</t>
+          <t>-10,54; 1,96</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-7,1; 2,16</t>
+          <t>-6,82; 7,15</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-0,06; 10,88</t>
+          <t>-3,24; 12,21</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>-8,48; 6,71</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>-3,39; 5,41</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>-6,29; 2,27</t>
+        </is>
+      </c>
+      <c r="O21" s="2" t="inlineStr">
+        <is>
+          <t>-1,64; 8,11</t>
+        </is>
+      </c>
+      <c r="P21" s="2" t="inlineStr">
+        <is>
+          <t>-0,91; 10,16</t>
+        </is>
+      </c>
+      <c r="Q21" s="2" t="inlineStr">
+        <is>
+          <t>-4,34; 7,2</t>
         </is>
       </c>
     </row>
@@ -1602,47 +2190,77 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>13,24%</t>
+          <t>10,73%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>6,49%</t>
+          <t>3,83%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>54,33%</t>
+          <t>50,25%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>-8,81%</t>
+          <t>18,32%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>-35,9%</t>
+          <t>18,14%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>30,26%</t>
+          <t>1,39%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>1,12%</t>
+          <t>-29,58%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>-16,91%</t>
+          <t>-0,65%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>41,06%</t>
+          <t>38,49%</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>-4,47%</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>5,92%</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>-13,62%</t>
+        </is>
+      </c>
+      <c r="O22" s="2" t="inlineStr">
+        <is>
+          <t>23,71%</t>
+        </is>
+      </c>
+      <c r="P22" s="2" t="inlineStr">
+        <is>
+          <t>26,81%</t>
+        </is>
+      </c>
+      <c r="Q22" s="2" t="inlineStr">
+        <is>
+          <t>6,63%</t>
         </is>
       </c>
     </row>
@@ -1655,47 +2273,77 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-27,48; 88,28</t>
+          <t>-31,93; 71,5</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-32,38; 82,57</t>
+          <t>-36,41; 70,71</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-4,65; 147,05</t>
+          <t>-8,92; 130,16</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-45,55; 43,63</t>
+          <t>-20,02; 75,55</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-62,84; 9,7</t>
+          <t>-23,36; 71,6</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-19,56; 104,15</t>
+          <t>-37,27; 61,7</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-28,86; 41,0</t>
+          <t>-61,62; 20,13</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-42,1; 19,7</t>
+          <t>-42,62; 73,53</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-0,19; 97,52</t>
+          <t>-18,83; 118,51</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>-36,1; 41,22</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>-21,58; 51,23</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>-39,84; 20,13</t>
+        </is>
+      </c>
+      <c r="O23" s="2" t="inlineStr">
+        <is>
+          <t>-11,27; 68,87</t>
+        </is>
+      </c>
+      <c r="P23" s="2" t="inlineStr">
+        <is>
+          <t>-4,6; 72,69</t>
+        </is>
+      </c>
+      <c r="Q23" s="2" t="inlineStr">
+        <is>
+          <t>-19,33; 43,34</t>
         </is>
       </c>
     </row>
@@ -1712,47 +2360,77 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>0,3</t>
+          <t>-1,03</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>1,35</t>
+          <t>0,89</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>3,38</t>
+          <t>0,68</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>-0,95</t>
+          <t>8,38</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>0,93</t>
+          <t>6,13</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>4,04</t>
+          <t>-2,02</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>-0,44</t>
+          <t>0,83</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>1,12</t>
+          <t>2,86</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>3,7</t>
+          <t>1,6</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>1,64</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>-1,61</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>0,87</t>
+        </is>
+      </c>
+      <c r="O24" s="2" t="inlineStr">
+        <is>
+          <t>1,94</t>
+        </is>
+      </c>
+      <c r="P24" s="2" t="inlineStr">
+        <is>
+          <t>4,4</t>
+        </is>
+      </c>
+      <c r="Q24" s="2" t="inlineStr">
+        <is>
+          <t>3,52</t>
         </is>
       </c>
     </row>
@@ -1765,47 +2443,77 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-9,48; 11,82</t>
+          <t>-11,49; 7,86</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-8,91; 11,1</t>
+          <t>-8,77; 9,66</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-7,32; 11,84</t>
+          <t>-11,51; 8,84</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-6,65; 3,09</t>
+          <t>-1,03; 17,29</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-3,88; 6,71</t>
+          <t>-2,3; 15,06</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-2,5; 11,05</t>
+          <t>-8,84; 2,75</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-5,81; 5,55</t>
+          <t>-6,23; 8,37</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-4,93; 6,54</t>
+          <t>-4,32; 13,52</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-2,31; 9,46</t>
+          <t>-9,24; 9,41</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>-7,12; 9,04</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>-7,65; 3,2</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>-5,71; 6,17</t>
+        </is>
+      </c>
+      <c r="O25" s="2" t="inlineStr">
+        <is>
+          <t>-3,65; 9,29</t>
+        </is>
+      </c>
+      <c r="P25" s="2" t="inlineStr">
+        <is>
+          <t>-2,78; 10,3</t>
+        </is>
+      </c>
+      <c r="Q25" s="2" t="inlineStr">
+        <is>
+          <t>-2,67; 9,29</t>
         </is>
       </c>
     </row>
@@ -1818,47 +2526,77 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>2,45%</t>
+          <t>-8,08%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>10,95%</t>
+          <t>6,96%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>27,4%</t>
+          <t>5,3%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>-15,17%</t>
+          <t>62,22%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>14,86%</t>
+          <t>38,94%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>64,74%</t>
+          <t>-27,03%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>-4,93%</t>
+          <t>11,14%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>12,56%</t>
+          <t>38,2%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>41,63%</t>
+          <t>15,47%</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>15,96%</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>-16,5%</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>8,93%</t>
+        </is>
+      </c>
+      <c r="O26" s="2" t="inlineStr">
+        <is>
+          <t>19,85%</t>
+        </is>
+      </c>
+      <c r="P26" s="2" t="inlineStr">
+        <is>
+          <t>37,54%</t>
+        </is>
+      </c>
+      <c r="Q26" s="2" t="inlineStr">
+        <is>
+          <t>27,99%</t>
         </is>
       </c>
     </row>
@@ -1871,47 +2609,77 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-58,58; 133,82</t>
+          <t>-62,76; 94,4</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-53,22; 140,03</t>
+          <t>-52,36; 119,21</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-43,88; 152,96</t>
+          <t>-62,1; 103,9</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-65,24; 83,05</t>
+          <t>-6,22; 193,19</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-49,21; 163,44</t>
+          <t>-13,2; 131,54</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-38,6; 272,85</t>
+          <t>-72,01; 71,07</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-50,24; 81,6</t>
+          <t>-60,31; 188,84</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-41,81; 104,2</t>
+          <t>-55,43; 284,83</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-22,29; 149,68</t>
+          <t>-56,07; 165,91</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>-49,29; 135,71</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>-54,86; 45,32</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>-43,07; 88,07</t>
+        </is>
+      </c>
+      <c r="O27" s="2" t="inlineStr">
+        <is>
+          <t>-32,64; 128,74</t>
+        </is>
+      </c>
+      <c r="P27" s="2" t="inlineStr">
+        <is>
+          <t>-20,24; 119,22</t>
+        </is>
+      </c>
+      <c r="Q27" s="2" t="inlineStr">
+        <is>
+          <t>-18,83; 98,28</t>
         </is>
       </c>
     </row>
@@ -1928,47 +2696,77 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>1,93</t>
+          <t>1,98</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>1,39</t>
+          <t>1,81</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>5,24</t>
+          <t>4,87</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>2,68</t>
+          <t>6,8</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>-0,45</t>
+          <t>5,93</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>8,5</t>
+          <t>2,45</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>2,32</t>
+          <t>-0,49</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>0,45</t>
+          <t>2,55</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>6,91</t>
+          <t>5,35</t>
+        </is>
+      </c>
+      <c r="L28" s="2" t="inlineStr">
+        <is>
+          <t>-0,44</t>
+        </is>
+      </c>
+      <c r="M28" s="2" t="inlineStr">
+        <is>
+          <t>2,22</t>
+        </is>
+      </c>
+      <c r="N28" s="2" t="inlineStr">
+        <is>
+          <t>0,63</t>
+        </is>
+      </c>
+      <c r="O28" s="2" t="inlineStr">
+        <is>
+          <t>3,69</t>
+        </is>
+      </c>
+      <c r="P28" s="2" t="inlineStr">
+        <is>
+          <t>6,12</t>
+        </is>
+      </c>
+      <c r="Q28" s="2" t="inlineStr">
+        <is>
+          <t>2,74</t>
         </is>
       </c>
     </row>
@@ -1981,47 +2779,77 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-2,26; 5,5</t>
+          <t>-1,91; 5,36</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-2,4; 5,73</t>
+          <t>-2,18; 5,82</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>1,02; 9,37</t>
+          <t>0,95; 9,25</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-0,14; 5,67</t>
+          <t>2,22; 11,77</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-3,4; 2,52</t>
+          <t>1,31; 10,64</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>5,14; 12,1</t>
+          <t>-0,4; 5,19</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>-0,36; 4,48</t>
+          <t>-3,37; 2,7</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-2,12; 2,78</t>
+          <t>-0,92; 5,78</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>3,98; 9,68</t>
+          <t>1,51; 8,94</t>
+        </is>
+      </c>
+      <c r="L29" s="2" t="inlineStr">
+        <is>
+          <t>-4,26; 3,6</t>
+        </is>
+      </c>
+      <c r="M29" s="2" t="inlineStr">
+        <is>
+          <t>-0,19; 4,45</t>
+        </is>
+      </c>
+      <c r="N29" s="2" t="inlineStr">
+        <is>
+          <t>-1,68; 3,23</t>
+        </is>
+      </c>
+      <c r="O29" s="2" t="inlineStr">
+        <is>
+          <t>1,1; 6,38</t>
+        </is>
+      </c>
+      <c r="P29" s="2" t="inlineStr">
+        <is>
+          <t>3,28; 9,05</t>
+        </is>
+      </c>
+      <c r="Q29" s="2" t="inlineStr">
+        <is>
+          <t>-0,27; 5,77</t>
         </is>
       </c>
     </row>
@@ -2034,47 +2862,77 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>9,24%</t>
+          <t>9,68%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>6,66%</t>
+          <t>8,87%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>25,02%</t>
+          <t>23,83%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>15,6%</t>
+          <t>26,85%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>-2,63%</t>
+          <t>22,67%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>49,44%</t>
+          <t>14,09%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>12,17%</t>
+          <t>-2,84%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>2,35%</t>
+          <t>14,71%</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>36,34%</t>
+          <t>26,85%</t>
+        </is>
+      </c>
+      <c r="L30" s="2" t="inlineStr">
+        <is>
+          <t>-1,73%</t>
+        </is>
+      </c>
+      <c r="M30" s="2" t="inlineStr">
+        <is>
+          <t>11,75%</t>
+        </is>
+      </c>
+      <c r="N30" s="2" t="inlineStr">
+        <is>
+          <t>3,34%</t>
+        </is>
+      </c>
+      <c r="O30" s="2" t="inlineStr">
+        <is>
+          <t>19,57%</t>
+        </is>
+      </c>
+      <c r="P30" s="2" t="inlineStr">
+        <is>
+          <t>27,15%</t>
+        </is>
+      </c>
+      <c r="Q30" s="2" t="inlineStr">
+        <is>
+          <t>10,57%</t>
         </is>
       </c>
     </row>
@@ -2087,63 +2945,100 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-9,53; 30,48</t>
+          <t>-8,4; 28,66</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-10,56; 30,77</t>
+          <t>-9,88; 30,91</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>4,11; 50,92</t>
+          <t>4,04; 50,18</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-0,84; 36,77</t>
+          <t>7,47; 50,05</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-17,81; 15,76</t>
+          <t>4,6; 45,69</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>27,47; 78,47</t>
+          <t>-2,14; 32,63</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>-1,67; 25,08</t>
+          <t>-17,56; 17,19</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>-10,07; 15,77</t>
+          <t>-5,24; 36,32</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>19,14; 54,53</t>
+          <t>6,67; 48,88</t>
+        </is>
+      </c>
+      <c r="L31" s="2" t="inlineStr">
+        <is>
+          <t>-15,48; 15,11</t>
+        </is>
+      </c>
+      <c r="M31" s="2" t="inlineStr">
+        <is>
+          <t>-1,05; 25,2</t>
+        </is>
+      </c>
+      <c r="N31" s="2" t="inlineStr">
+        <is>
+          <t>-8,71; 17,7</t>
+        </is>
+      </c>
+      <c r="O31" s="2" t="inlineStr">
+        <is>
+          <t>5,58; 36,26</t>
+        </is>
+      </c>
+      <c r="P31" s="2" t="inlineStr">
+        <is>
+          <t>13,46; 42,95</t>
+        </is>
+      </c>
+      <c r="Q31" s="2" t="inlineStr">
+        <is>
+          <t>-1,14; 23,01</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="A4:A7"/>
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="C1:G1"/>
     <mergeCell ref="A12:A15"/>
-    <mergeCell ref="I1:K1"/>
     <mergeCell ref="A28:A31"/>
     <mergeCell ref="A20:A23"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A24:A27"/>
     <mergeCell ref="A16:A19"/>
+    <mergeCell ref="M1:Q1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
